--- a/South German Credit/Performance_metrics/model_perf_metrics_merged_only_with_cfs_testing.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_merged_only_with_cfs_testing.xlsx
@@ -502,10 +502,10 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8546637744034706</v>
+        <v>0.8476821192052981</v>
       </c>
       <c r="H2" t="n">
-        <v>0.669094063830906</v>
+        <v>0.6736158578263842</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3088803088803089</v>
+        <v>0.2292490118577075</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5407487249592512</v>
+        <v>0.4869604080130396</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2687747035573122</v>
+        <v>0.3854545454545455</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5263946579736053</v>
+        <v>0.5553656869446344</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:3_iteration:1</t>
+          <t>LR_sample:20_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -632,16 +632,16 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3717472118959108</v>
+        <v>0.2412451361867704</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5646721699353278</v>
+        <v>0.4807560860192439</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:3_iteration:2</t>
+          <t>LR_sample:20_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -666,16 +666,16 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2788844621513945</v>
+        <v>0.2157676348547718</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5452705189547296</v>
+        <v>0.5292339239707661</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>44</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2510121457489878</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5357011409642989</v>
+        <v>0.5048635574951365</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.4261168384879725</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5273673694726326</v>
+        <v>0.5384352489615648</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LR_sample:22_cf:3_iteration:1</t>
+          <t>LR_sample:22_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -768,16 +768,16 @@
         <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3840579710144927</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5498711814501288</v>
+        <v>0.4926389400073611</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LR_sample:22_cf:3_iteration:2</t>
+          <t>LR_sample:22_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -802,16 +802,16 @@
         <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.03755868544600938</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5634365634365635</v>
+        <v>0.5095693779904307</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>

--- a/South German Credit/Performance_metrics/model_perf_metrics_merged_only_with_cfs_testing.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_merged_only_with_cfs_testing.xlsx
@@ -502,10 +502,10 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8532731376975169</v>
+        <v>0.8590604026845637</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7049003627950996</v>
+        <v>0.7065828907934171</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7667436489607391</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5784478679215521</v>
+        <v>0.6161995898838004</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7009803921568628</v>
+        <v>0.8172043010752688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.534412955465587</v>
+        <v>0.5919080919080919</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>0.7069767441860465</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5244755244755245</v>
+        <v>0.4845154845154845</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7488584474885844</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5444029654555971</v>
+        <v>0.5352016404647983</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
